--- a/biology/Médecine/Bioélectromagnétisme/Bioélectromagnétisme.xlsx
+++ b/biology/Médecine/Bioélectromagnétisme/Bioélectromagnétisme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bio%C3%A9lectromagn%C3%A9tisme</t>
+          <t>Bioélectromagnétisme</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le bioélectromagnétisme est la production de champs électriques, magnétiques ou électromagnétiques par les cellules, les tissus ou les organismes vivants. Le potentiel de membrane des cellules et les potentiels d'action propagés par les fibres nerveuses sont des exemples du bioélectromagnétisme.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bio%C3%A9lectromagn%C3%A9tisme</t>
+          <t>Bioélectromagnétisme</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les cellules des organismes vivants font usage de la bioélectricité pour stocker de l'énergie issue du métabolisme, pour produire un travail ou pour transmettre des signaux à d'autres cellules. Lors du mouvement des charges issues des potentiels bioélectriques, un champ biomagnétique est généré. Le bioélectromagnétisme est donc le cadre d'étude des champs électromagnétiques résultant des champs bioélectriques et biomagnétiques des êtres vivants; il regroupe des compétences en biologie (physiologie cellulaire), en physique (électromagnétisme) et en chimie (potentiels redox).
 L'étude du bioélectromagnétisme s'effectue principalement par des techniques d'électrophysiologie. Vers la fin du XVIIIe siècle, le physicien et médecin italien Luigi Galvani décrit pour la première fois le phénomène en disséquant des grenouilles et en observant des contractions des cuisses lorsque les muscles étaient touchés avec des ustensiles métalliques. Galvani évoqua l'existence d'une « électricité animale », mais ses contemporains adoptèrent rapidement le terme de galvanisme pour expliquer le phénomène, envisagé comme étant la manifestation d'un fluide ou d'une substance électrique présente dans les nerfs.
